--- a/WKRDB-EST2/WGRDBES_EST_Timeline.xlsx
+++ b/WKRDB-EST2/WGRDBES_EST_Timeline.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25470" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="WGRDBESGOV 2020" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>Jan</t>
   </si>
@@ -145,6 +144,12 @@
   </si>
   <si>
     <t xml:space="preserve">(b) fishnCo data quality </t>
+  </si>
+  <si>
+    <t>report to wgcatch</t>
+  </si>
+  <si>
+    <t>d,e</t>
   </si>
 </sst>
 </file>
@@ -168,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -232,6 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,87 +259,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>496986</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>143320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="12079386" cy="3191320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>269412</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>13818</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>91031</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="879012" y="2909788"/>
-          <a:ext cx="11326806" cy="4610743"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AD22"/>
+  <dimension ref="A2:AD23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,18 +1289,18 @@
       <c r="AD18" s="2"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
+      <c r="A19" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
@@ -1380,10 +1311,10 @@
       <c r="N19" s="4"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="3"/>
@@ -1394,18 +1325,60 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>23</v>
+      <c r="AC19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1418,19 +1391,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>